--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
-  <si>
-    <t>训练指标</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+  <si>
+    <t>微调指标</t>
   </si>
   <si>
     <t>data_size</t>
@@ -65,10 +65,22 @@
     <t>bert-sft-diy</t>
   </si>
   <si>
-    <t>bert-sft-siy-lora</t>
-  </si>
-  <si>
-    <t>bert-sft-siy-lora-mixed</t>
+    <t>bert-sft-diy-lora</t>
+  </si>
+  <si>
+    <t>bert-sft-diy-lora-mix</t>
+  </si>
+  <si>
+    <t>bert-sft-mix</t>
+  </si>
+  <si>
+    <t>bert-sft-lora</t>
+  </si>
+  <si>
+    <t>bert-sft-diy-mix</t>
+  </si>
+  <si>
+    <t>bert-sft-lora-mix</t>
   </si>
   <si>
     <t>测试集指标：在 NSL-KDD-10000.csv 上</t>
@@ -77,51 +89,60 @@
     <t>test_time</t>
   </si>
   <si>
+    <t>bert</t>
+  </si>
+  <si>
+    <t>未经过微调，每次都不同</t>
+  </si>
+  <si>
     <t>泛化性测试：ACC</t>
   </si>
   <si>
     <t>NSL-KDD-10000</t>
   </si>
   <si>
+    <t>KDD99-10000</t>
+  </si>
+  <si>
+    <t>UNSW_NB15-10000</t>
+  </si>
+  <si>
+    <t>X-IIoTID-10000</t>
+  </si>
+  <si>
+    <t>MAX_Length</t>
+  </si>
+  <si>
+    <t>test-time</t>
+  </si>
+  <si>
+    <t>default-tokenizer</t>
+  </si>
+  <si>
+    <t>diy-tokenizer</t>
+  </si>
+  <si>
+    <t>NSL-KDD-100000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>CICIDS2018-10000</t>
   </si>
   <si>
-    <t>KDD99-10000</t>
-  </si>
-  <si>
-    <t>UNSW_NB15-10000</t>
-  </si>
-  <si>
-    <t>X-IIoTID-10000</t>
-  </si>
-  <si>
-    <t>MAX_Length</t>
-  </si>
-  <si>
-    <t>test-time</t>
-  </si>
-  <si>
-    <t>default-tokenizer</t>
-  </si>
-  <si>
-    <t>diy-tokenizer</t>
-  </si>
-  <si>
-    <t>NSL-KDD-100000</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>鲁棒性测试</t>
   </si>
   <si>
-    <t>Nomal_Dataset</t>
+    <t>Nomal_Dataset: NSL-KDD-10000</t>
   </si>
   <si>
     <t>Adversarial_Dataset</t>
   </si>
   <si>
+    <t>随机性扰动</t>
+  </si>
+  <si>
     <t>SVM</t>
   </si>
   <si>
@@ -143,7 +164,19 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>大模型可以不用做降维，可以从特征之间的关联性角度角度出发，画图，阐述的梦想方法的优越性</t>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>大模型可以不用做降维，可以从特征之间的关联性角度角度出发，画图，阐述大模型方法的优越性</t>
   </si>
 </sst>
 </file>
@@ -157,7 +190,14 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,12 +350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -542,6 +588,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -564,17 +621,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,55 +754,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,74 +814,77 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,12 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,6 +911,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1183,24 +1241,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="7.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -1218,720 +1278,1609 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>100000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3166</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.0028</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.0036</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.9993</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.9992</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.9994</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>0.9993</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>100000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1199</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.0087</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.0047</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.9987</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.9988</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.9987</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0.9987</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>100000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>792</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.0614</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.0465</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.986</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.9785</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.9955</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.9869</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>500000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>15949</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.065</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.0602</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.9757</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.9924</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.9606</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.9762</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="3" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="C8" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2482</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0767</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.0735</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.9805</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.9746</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.9891</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.9818</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C15" s="2">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D15" s="2">
         <v>0.9985</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E15" s="3">
         <v>0.998</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F15" s="2">
         <v>0.9993</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G15" s="2">
         <v>0.9986</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D16" s="2">
         <v>0.9974</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E16" s="2">
         <v>0.9963</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F16" s="2">
         <v>0.9989</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G16" s="2">
         <v>0.9976</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="3" t="s">
+    <row r="17" spans="2:7">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C17" s="2">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D17" s="2">
         <v>0.9877</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E17" s="2">
         <v>0.9808</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F17" s="2">
         <v>0.9969</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G17" s="2">
         <v>0.9888</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="3" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C18" s="2">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D18" s="2">
         <v>0.9571</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E18" s="2">
         <v>0.9274</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F18" s="2">
         <v>0.9991</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G18" s="2">
         <v>0.9619</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.9822</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.9776</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.9837</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="7"/>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="8"/>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.9985</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.9993</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.9986</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.8138</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.9437</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.6674</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.7819</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.831</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.4655</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.4519</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.1504</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.2257</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.9974</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.9963</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.9989</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.9976</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.7777</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.9989</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.556</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.7144</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.6506</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.4797</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.3182</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.9877</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.9808</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.9969</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.9888</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.7804</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.9961</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.563</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.7194</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.7537</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.5683</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.5932</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.5301</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.5599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.9571</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.9274</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.9991</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.9619</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.9712</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.9466</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.9988</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.972</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.9728</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.9982</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.9969</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.9996</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.9983</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.9822</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.9776</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.9837</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.5032</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.0064</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.0127</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.9991</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.4822</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="7"/>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="8"/>
+      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2">
+        <v>124</v>
+      </c>
+      <c r="D40" s="2">
+        <v>41</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
+        <v>123</v>
+      </c>
+      <c r="D41" s="2">
+        <v>41</v>
+      </c>
+      <c r="E41" s="11">
+        <v>25</v>
+      </c>
+      <c r="F41" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2">
+        <v>358</v>
+      </c>
+      <c r="D42" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2">
+        <v>111</v>
+      </c>
+      <c r="D43" s="2">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2">
+        <v>163</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2">
+        <v>331</v>
+      </c>
+      <c r="D45" s="2">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0.958195819581958</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.943322706340772</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.98193215339233</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0.962240289069557</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.899089908990899</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.910239732391748</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0.903023598820059</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0.906617306802406</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0.949794979497949</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.988487495037713</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.918141592920354</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0.952016822787229</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.853385338533853</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.922141638225255</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0.797013274336283</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0.855023734177215</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0.968096809680968</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.968950946169391</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.972345132743362</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0.970645072237047</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.888488848884888</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.866224715281319</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0.93952802359882</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0.901388520385601</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0.891089108910891</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.983493196520187</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.812868731563421</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0.890077722822246</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.84038403840384</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.966374269005847</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0.731194690265486</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.83249370277078</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0.844684468446844</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.929252605899312</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.772492625368731</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0.843652471559448</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.772777277727772</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.804364619544225</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0.767883480825958</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.785700811167704</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0.939393939393939</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.941208791208791</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.947455752212389</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0.944321940463065</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.862186218621862</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.891902363425029</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0.84882005899705</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0.869828074815794</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0.93069306930693</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.993532234508658</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.877949852507374</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.932171870412058</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.862186218621862</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.946381288614298</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0.790744837758112</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.861591000401767</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0.984798479847984</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.990875232774674</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.981010324483775</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0.98591810264962</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.831883188318831</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0.824744056914801</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0.876290560471976</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.849736301063734</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0.986198619861986</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.985132158590308</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.989491150442477</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0.987306843267108</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0.755175517551755</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.737851662404092</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0.851032448377581</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.790410958904109</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0.983798379837983</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.988670133729569</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.981379056047197</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0.98501110288675</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.878687868786878</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.859116493262834</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0.928650442477876</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0.892531230619296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0.983398339833983</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.988480118914901</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.980825958702064</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.984638163982972</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.861986198619862</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.839946200403496</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0.921091445427728</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.878649314104818</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C63" s="3">
         <v>0.9985</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.4983</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.8138</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.831</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.4655</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3" t="s">
+      <c r="D63" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.9993</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.9986</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.5344</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.9923</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.1427</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C64" s="3">
         <v>0.9974</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.4981</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.7777</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.6506</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.4797</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
+      <c r="D64" s="3">
+        <v>0.9963</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.9989</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.9976</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.5461</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.9933</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.1643</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.2819</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C65" s="3">
         <v>0.9877</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.4594</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.7804</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.7537</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5683</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3" t="s">
+      <c r="D65" s="3">
+        <v>0.9808</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.9969</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.9888</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.7957</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.8105</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.8136</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.812</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C66" s="3">
         <v>0.9571</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.4431</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.9712</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.9728</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.9982</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="3"/>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3">
-        <v>124</v>
-      </c>
-      <c r="D25" s="3">
-        <v>41</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="3" t="s">
+      <c r="D66" s="3">
+        <v>0.9274</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.9991</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.9619</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.8506</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.8185</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.931</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.8711</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.9822</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.9776</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.9837</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.4576</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3">
-        <v>123</v>
-      </c>
-      <c r="D26" s="3">
-        <v>41</v>
-      </c>
-      <c r="E26" s="10">
-        <v>25</v>
-      </c>
-      <c r="F26" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3">
-        <v>358</v>
-      </c>
-      <c r="D27" s="3">
-        <v>79</v>
-      </c>
-      <c r="E27" s="2">
-        <v>79</v>
-      </c>
-      <c r="F27" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3">
-        <v>111</v>
-      </c>
-      <c r="D28" s="3">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2">
-        <v>22</v>
-      </c>
-      <c r="F28" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3">
-        <v>163</v>
-      </c>
-      <c r="D29" s="3">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2">
-        <v>34</v>
-      </c>
-      <c r="F29" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3">
-        <v>331</v>
-      </c>
-      <c r="D30" s="3">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>74</v>
-      </c>
-      <c r="F30" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
-        <v>38</v>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="21">
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C32:R32"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
